--- a/2tier.xlsx
+++ b/2tier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BF6FA-0E2B-4906-8DFD-04FED884058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB908D-CECA-4365-A5E4-601A2D32A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Architecture" sheetId="1" r:id="rId1"/>
@@ -681,14 +681,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.2G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -1071,6 +1063,14 @@
   </si>
   <si>
     <t>fds</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4G</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:AN1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D6" sqref="D6:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1708,7 +1708,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>95</v>
@@ -1824,7 +1824,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1870,7 +1870,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1888,7 +1888,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1901,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="15.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="15.75" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:40" ht="15.75" customHeight="1">
@@ -1934,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>96</v>
@@ -1948,7 +1948,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F10" s="30"/>
     </row>
@@ -1960,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F11" s="30"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:40" ht="15.75" customHeight="1">
@@ -1983,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
@@ -1997,7 +1997,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2011,13 +2011,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="L15" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:40" ht="15.75" customHeight="1">
@@ -2028,7 +2028,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -2042,7 +2042,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -2056,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -2070,7 +2070,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
@@ -2081,7 +2081,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1">
@@ -2092,7 +2092,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1">
@@ -2103,7 +2103,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1">
@@ -2114,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1">
@@ -2136,7 +2136,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1">
@@ -2147,7 +2147,7 @@
         <v>57</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1">
@@ -2158,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1">
@@ -2169,7 +2169,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1">
@@ -2180,7 +2180,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1">
@@ -2191,7 +2191,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1">
@@ -2202,7 +2202,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1">
@@ -2213,7 +2213,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
@@ -2224,7 +2224,7 @@
         <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
@@ -2235,7 +2235,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
@@ -2246,7 +2246,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
@@ -2257,7 +2257,7 @@
         <v>67</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
@@ -2268,7 +2268,7 @@
         <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
@@ -2279,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1">
@@ -2290,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1">
@@ -2301,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
@@ -2312,7 +2312,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1">
@@ -2334,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1">
@@ -2345,7 +2345,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1">
@@ -2356,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1">
@@ -2367,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1">
@@ -2378,7 +2378,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1">
@@ -2389,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1">
@@ -2400,7 +2400,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
@@ -2411,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
@@ -2422,7 +2422,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
@@ -2444,7 +2444,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1">
@@ -2455,7 +2455,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
@@ -2466,7 +2466,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1">
@@ -2477,7 +2477,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1">
@@ -2488,7 +2488,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
@@ -2510,7 +2510,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
@@ -2521,7 +2521,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
@@ -2532,7 +2532,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1">
@@ -2543,7 +2543,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1">
@@ -2554,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" customHeight="1">
@@ -2565,7 +2565,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
@@ -2576,7 +2576,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
@@ -2587,7 +2587,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
@@ -2598,7 +2598,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
@@ -2609,7 +2609,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
@@ -2620,7 +2620,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1"/>
@@ -3925,8 +3925,8 @@
   </sheetPr>
   <dimension ref="B1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3969,11 +3969,11 @@
         <v>233360</v>
       </c>
       <c r="D3" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="0">C3 / (C3+D3)</f>
-        <v>0.9996915589979094</v>
+        <v>0.99989716518698801</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3991,11 +3991,11 @@
         <v>41280.840362202769</v>
       </c>
       <c r="D4" s="6">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -4013,11 +4013,11 @@
         <v>717739.67029953504</v>
       </c>
       <c r="D5" s="6">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989969513874033</v>
+        <v>0.99996656281030494</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -4035,11 +4035,11 @@
         <v>41280.840362202769</v>
       </c>
       <c r="D6" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -4079,11 +4079,11 @@
         <v>700358421.31776893</v>
       </c>
       <c r="D8" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4101,11 +4101,11 @@
         <v>700358421.31776893</v>
       </c>
       <c r="D9" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -5116,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A66DAC-66B1-467C-BE75-9DAC5FC70339}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5170,11 +5170,11 @@
       </c>
       <c r="D3" s="17">
         <f>Availability!D3</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="0">C3 / (C3+D3)</f>
-        <v>0.9996915589979094</v>
+        <v>0.99989716518698801</v>
       </c>
       <c r="F3" s="4">
         <f>Availability!F3</f>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="H3" s="28">
         <f>1-(1-E3)^2</f>
-        <v>0.99999990486414825</v>
+        <v>0.99999998942500123</v>
       </c>
       <c r="I3" s="28">
         <v>1</v>
       </c>
       <c r="J3" s="28">
         <f>H3^I3</f>
-        <v>0.99999990486414825</v>
+        <v>0.99999998942500123</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="D4" s="17">
         <f>Availability!D4</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F4" s="4">
         <f>Availability!F4</f>
@@ -5222,14 +5222,14 @@
       </c>
       <c r="H4" s="28">
         <f t="shared" ref="H4:H9" si="1">1-(1-E4)^2</f>
-        <v>0.99999696852282172</v>
+        <v>0.99999966238589122</v>
       </c>
       <c r="I4" s="28">
         <v>2</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ref="J4:J9" si="2">H4^I4</f>
-        <v>0.9999939370548333</v>
+        <v>0.99999932477189646</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="D5" s="17">
         <f>Availability!D5</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0.99989969513874033</v>
+        <v>0.99996656281030494</v>
       </c>
       <c r="F5" s="4">
         <f>Availability!F5</f>
@@ -5258,14 +5258,14 @@
       </c>
       <c r="H5" s="28">
         <f t="shared" si="1"/>
-        <v>0.9999999899389348</v>
+        <v>0.99999999888195434</v>
       </c>
       <c r="I5" s="28">
         <v>2</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="2"/>
-        <v>0.9999999798778697</v>
+        <v>0.99999999776390869</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -5278,11 +5278,11 @@
       </c>
       <c r="D6" s="17">
         <f>Availability!D6</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99825888622475834</v>
+        <v>0.99941895429713457</v>
       </c>
       <c r="F6" s="4">
         <f>Availability!F6</f>
@@ -5294,14 +5294,14 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="1"/>
-        <v>0.99999696852282172</v>
+        <v>0.99999966238589122</v>
       </c>
       <c r="I6" s="28">
         <v>2</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="2"/>
-        <v>0.9999939370548333</v>
+        <v>0.99999932477189646</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="D8" s="17">
         <f>Availability!D8</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F8" s="4">
         <f>Availability!F8</f>
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H8" s="28">
         <f>E8</f>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="I8" s="28">
         <v>1</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="2"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -5385,11 +5385,11 @@
       </c>
       <c r="D9" s="17">
         <f>Availability!D9</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999989719550675</v>
+        <v>0.99999996573183325</v>
       </c>
       <c r="F9" s="4">
         <f>Availability!F9</f>
@@ -5401,14 +5401,14 @@
       </c>
       <c r="H9" s="28">
         <f t="shared" si="1"/>
-        <v>0.99999999999998945</v>
+        <v>0.99999999999999878</v>
       </c>
       <c r="I9" s="28">
         <v>2</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" si="2"/>
-        <v>0.99999999999997891</v>
+        <v>0.99999999999999756</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="J10">
         <f>PRODUCT(J3:J7)</f>
-        <v>0.99998775121028582</v>
+        <v>0.99999862905353498</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5481,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="20">
         <f>1 /( 1/B6 + 1 / B7 * 4 + 1/B8 + 1/B15)</f>
@@ -5540,7 +5540,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="21">
         <f>E20 * H23/(1-H23)</f>
@@ -5586,10 +5586,10 @@
         <v>9247903</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="32">
         <f>1 /( 1/B6 * 2 + 1 / B7 * 4 + 1/B8 + 1/B15)</f>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="34">
         <v>43800</v>

--- a/2tier.xlsx
+++ b/2tier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\주우스\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB908D-CECA-4365-A5E4-601A2D32A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADDA45-26F9-4A16-B62C-EDE3776B9574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Architecture" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="124">
   <si>
     <t>from</t>
   </si>
@@ -1070,7 +1070,67 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.4G</t>
+    <t>6G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd32</t>
+  </si>
+  <si>
+    <t>ssd33</t>
+  </si>
+  <si>
+    <t>ssd34</t>
+  </si>
+  <si>
+    <t>ssd35</t>
+  </si>
+  <si>
+    <t>ssd36</t>
+  </si>
+  <si>
+    <t>ssd37</t>
+  </si>
+  <si>
+    <t>ssd38</t>
+  </si>
+  <si>
+    <t>ssd39</t>
+  </si>
+  <si>
+    <t>ssd40</t>
+  </si>
+  <si>
+    <t>ssd41</t>
+  </si>
+  <si>
+    <t>ssd42</t>
+  </si>
+  <si>
+    <t>ssd43</t>
+  </si>
+  <si>
+    <t>ssd44</t>
+  </si>
+  <si>
+    <t>ssd45</t>
+  </si>
+  <si>
+    <t>ssd45</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd46</t>
+  </si>
+  <si>
+    <t>ssd46</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd47</t>
+  </si>
+  <si>
+    <t>ssd47</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1383,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1502,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1660,25 +1721,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN1062"/>
+  <dimension ref="A1:BD1062"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="15.75" customHeight="1">
+    <row r="1" spans="2:56" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1761,7 @@
       <c r="K1" s="36"/>
       <c r="L1" s="37"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" customHeight="1">
+    <row r="2" spans="2:56" ht="15.75" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1815,8 +1876,56 @@
       <c r="AN2" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:40" ht="15.75" customHeight="1">
+      <c r="AO2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:56" ht="15.75" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1971,7 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="2:40" ht="15.75" customHeight="1">
+    <row r="4" spans="2:56" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +1989,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:40" ht="15.75" customHeight="1">
+    <row r="5" spans="2:56" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +2002,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:40" ht="15.75" customHeight="1">
+    <row r="6" spans="2:56" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +2013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="15.75" customHeight="1">
+    <row r="7" spans="2:56" ht="15.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1915,7 +2024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="15.75" customHeight="1">
+    <row r="8" spans="2:56" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1926,7 +2035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="15.75" customHeight="1">
+    <row r="9" spans="2:56" ht="15.75" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1940,7 +2049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="15.75" customHeight="1">
+    <row r="10" spans="2:56" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +2061,7 @@
       </c>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="2:40" ht="15.75" customHeight="1">
+    <row r="11" spans="2:56" ht="15.75" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +2073,7 @@
       </c>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="2:40" ht="15.75" customHeight="1">
+    <row r="12" spans="2:56" ht="15.75" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1975,7 +2084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:40" ht="15.75" customHeight="1">
+    <row r="13" spans="2:56" ht="15.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1989,7 +2098,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:40" ht="15.75" customHeight="1">
+    <row r="14" spans="2:56" ht="15.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -2003,7 +2112,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="2:40" ht="15.75" customHeight="1">
+    <row r="15" spans="2:56" ht="15.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="15.75" customHeight="1">
+    <row r="16" spans="2:56" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
@@ -2273,10 +2382,10 @@
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>104</v>
@@ -2284,10 +2393,10 @@
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>104</v>
@@ -2295,10 +2404,10 @@
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>104</v>
@@ -2306,10 +2415,10 @@
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>104</v>
@@ -2317,10 +2426,10 @@
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>104</v>
@@ -2328,10 +2437,10 @@
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>104</v>
@@ -2339,10 +2448,10 @@
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>104</v>
@@ -2350,10 +2459,10 @@
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>104</v>
@@ -2361,10 +2470,10 @@
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>104</v>
@@ -2372,10 +2481,10 @@
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>104</v>
@@ -2383,10 +2492,10 @@
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>104</v>
@@ -2394,10 +2503,10 @@
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>104</v>
@@ -2405,10 +2514,10 @@
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>104</v>
@@ -2416,10 +2525,10 @@
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>104</v>
@@ -2427,10 +2536,10 @@
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>104</v>
@@ -2438,10 +2547,10 @@
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>104</v>
@@ -2449,10 +2558,10 @@
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>104</v>
@@ -2460,10 +2569,10 @@
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>104</v>
@@ -2474,7 +2583,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>104</v>
@@ -2485,7 +2594,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>104</v>
@@ -2496,7 +2605,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>104</v>
@@ -2507,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>104</v>
@@ -2518,7 +2627,7 @@
         <v>43</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>104</v>
@@ -2529,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>104</v>
@@ -2540,7 +2649,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>104</v>
@@ -2551,7 +2660,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>104</v>
@@ -2562,7 +2671,7 @@
         <v>43</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>104</v>
@@ -2573,7 +2682,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>104</v>
@@ -2584,7 +2693,7 @@
         <v>43</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>104</v>
@@ -2595,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>104</v>
@@ -2606,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>104</v>
@@ -2617,152 +2726,367 @@
         <v>43</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1"/>
+      <c r="B74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="95" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="96" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="98" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="100" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" customHeight="1">
       <c r="B102" s="3"/>
@@ -3926,17 +4250,17 @@
   <dimension ref="B1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4031,15 +4355,15 @@
         <v>71</v>
       </c>
       <c r="C6" s="15">
-        <f>etc!F6</f>
-        <v>41280.840362202769</v>
+        <f>etc!F9</f>
+        <v>716275.00083246583</v>
       </c>
       <c r="D6" s="4">
         <v>24</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99941895429713457</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -5116,19 +5440,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A66DAC-66B1-467C-BE75-9DAC5FC70339}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -5274,7 +5598,7 @@
       </c>
       <c r="C6" s="17">
         <f>Availability!C6</f>
-        <v>41280.840362202769</v>
+        <v>716275.00083246583</v>
       </c>
       <c r="D6" s="17">
         <f>Availability!D6</f>
@@ -5282,7 +5606,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0.99941895429713457</v>
+        <v>0.9999664944388138</v>
       </c>
       <c r="F6" s="4">
         <f>Availability!F6</f>
@@ -5294,14 +5618,14 @@
       </c>
       <c r="H6" s="28">
         <f t="shared" si="1"/>
-        <v>0.99999966238589122</v>
+        <v>0.99999999887737734</v>
       </c>
       <c r="I6" s="28">
         <v>2</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="2"/>
-        <v>0.99999932477189646</v>
+        <v>0.99999999775475468</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -5417,7 +5741,7 @@
       </c>
       <c r="J10">
         <f>PRODUCT(J3:J7)</f>
-        <v>0.99999862905353498</v>
+        <v>0.99999930203592502</v>
       </c>
     </row>
   </sheetData>
@@ -5434,20 +5758,20 @@
   <dimension ref="A4:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="14.25">
+    <row r="4" spans="1:11" ht="13.8">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -5470,7 +5794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -5498,7 +5822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -5529,7 +5853,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -5560,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -5578,7 +5902,7 @@
         <v>716275.00083246583</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -5596,7 +5920,7 @@
         <v>41275.985925206274</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11" ht="13.8">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -5604,7 +5928,7 @@
         <v>13764075</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25">
+    <row r="12" spans="1:11" ht="13.8">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -5621,7 +5945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25">
+    <row r="13" spans="1:11" ht="13.8">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -5647,7 +5971,7 @@
         <v>0.99999671795444112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25">
+    <row r="14" spans="1:11" ht="13.8">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
